--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +546,40 @@
         <v>0.134456</v>
       </c>
       <c r="I2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="O2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q2">
-        <v>0.02240295414311111</v>
+        <v>0.01040096339644444</v>
       </c>
       <c r="R2">
-        <v>0.201626587288</v>
+        <v>0.093608670568</v>
       </c>
       <c r="S2">
-        <v>0.0007115558016930619</v>
+        <v>0.0002817750663005295</v>
       </c>
       <c r="T2">
-        <v>0.0007115558016930617</v>
+        <v>0.0002817750663005294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +608,10 @@
         <v>0.134456</v>
       </c>
       <c r="I3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +626,10 @@
         <v>52.897882</v>
       </c>
       <c r="O3">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P3">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q3">
         <v>0.7902708469102222</v>
@@ -635,10 +638,10 @@
         <v>7.112437622191999</v>
       </c>
       <c r="S3">
-        <v>0.02510034178687865</v>
+        <v>0.02140942255018663</v>
       </c>
       <c r="T3">
-        <v>0.02510034178687865</v>
+        <v>0.02140942255018663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +670,40 @@
         <v>0.134456</v>
       </c>
       <c r="I4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N4">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="O4">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P4">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q4">
-        <v>0.0006339749795555556</v>
+        <v>0.03306912452977778</v>
       </c>
       <c r="R4">
-        <v>0.005705774816</v>
+        <v>0.297622120768</v>
       </c>
       <c r="S4">
-        <v>2.01361200826147E-05</v>
+        <v>0.0008958838139997649</v>
       </c>
       <c r="T4">
-        <v>2.013612008261469E-05</v>
+        <v>0.0008958838139997649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +732,10 @@
         <v>0.134456</v>
       </c>
       <c r="I5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N5">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="O5">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P5">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q5">
-        <v>0.03188982589333333</v>
+        <v>0.05126459188355555</v>
       </c>
       <c r="R5">
-        <v>0.28700843304</v>
+        <v>0.461381326952</v>
       </c>
       <c r="S5">
-        <v>0.001012874930887654</v>
+        <v>0.001388821710669271</v>
       </c>
       <c r="T5">
-        <v>0.001012874930887654</v>
+        <v>0.001388821710669271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,25 +779,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.606609333333333</v>
+        <v>0.04481866666666667</v>
       </c>
       <c r="H6">
-        <v>4.819827999999999</v>
+        <v>0.134456</v>
       </c>
       <c r="I6">
-        <v>0.9623061991901166</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J6">
-        <v>0.9623061991901166</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4998576666666667</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N6">
-        <v>1.499573</v>
+        <v>0.223026</v>
       </c>
       <c r="O6">
-        <v>0.02650617333988447</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P6">
-        <v>0.02650617333988446</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q6">
-        <v>0.8030759926048888</v>
+        <v>0.003331909317333334</v>
       </c>
       <c r="R6">
-        <v>7.227683933443999</v>
+        <v>0.029987183856</v>
       </c>
       <c r="S6">
-        <v>0.02550705492177862</v>
+        <v>9.026557762138612E-05</v>
       </c>
       <c r="T6">
-        <v>0.02550705492177862</v>
+        <v>9.026557762138611E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.63262733333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N7">
-        <v>52.897882</v>
+        <v>0.696203</v>
       </c>
       <c r="O7">
-        <v>0.9350131201380354</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P7">
-        <v>0.9350131201380353</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q7">
-        <v>28.32874364492177</v>
+        <v>0.3728420792315555</v>
       </c>
       <c r="R7">
-        <v>254.9586928042959</v>
+        <v>3.355578713084</v>
       </c>
       <c r="S7">
-        <v>0.8997689218329247</v>
+        <v>0.01010075678480059</v>
       </c>
       <c r="T7">
-        <v>0.8997689218329247</v>
+        <v>0.01010075678480059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01414533333333333</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="N8">
-        <v>0.042436</v>
+        <v>52.897882</v>
       </c>
       <c r="O8">
-        <v>0.0007500908404267997</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P8">
-        <v>0.0007500908404267996</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q8">
-        <v>0.02272602455644444</v>
+        <v>28.32874364492177</v>
       </c>
       <c r="R8">
-        <v>0.204534221008</v>
+        <v>254.9586928042959</v>
       </c>
       <c r="S8">
-        <v>0.0007218170656984339</v>
+        <v>0.7674609855359441</v>
       </c>
       <c r="T8">
-        <v>0.0007218170656984338</v>
+        <v>0.7674609855359441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +980,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7115299999999999</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N9">
-        <v>2.13459</v>
+        <v>2.213528</v>
       </c>
       <c r="O9">
-        <v>0.03773061568165336</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P9">
-        <v>0.03773061568165335</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q9">
-        <v>1.143150738946666</v>
+        <v>1.185424914798222</v>
       </c>
       <c r="R9">
-        <v>10.28835665052</v>
+        <v>10.668824233184</v>
       </c>
       <c r="S9">
-        <v>0.03630840536971486</v>
+        <v>0.03211463892621273</v>
       </c>
       <c r="T9">
-        <v>0.03630840536971485</v>
+        <v>0.03211463892621273</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01811266666666667</v>
+        <v>1.606609333333333</v>
       </c>
       <c r="H10">
-        <v>0.054338</v>
+        <v>4.819827999999999</v>
       </c>
       <c r="I10">
-        <v>0.01084889217034147</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J10">
-        <v>0.01084889217034147</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4998576666666667</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N10">
-        <v>1.499573</v>
+        <v>3.431467</v>
       </c>
       <c r="O10">
-        <v>0.02650617333988447</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P10">
-        <v>0.02650617333988446</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q10">
-        <v>0.009053755297111112</v>
+        <v>1.837675636408444</v>
       </c>
       <c r="R10">
-        <v>0.08148379767400001</v>
+        <v>16.539080727676</v>
       </c>
       <c r="S10">
-        <v>0.0002875626164127863</v>
+        <v>0.04978492419893239</v>
       </c>
       <c r="T10">
-        <v>0.0002875626164127862</v>
+        <v>0.04978492419893239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01811266666666667</v>
+        <v>1.606609333333333</v>
       </c>
       <c r="H11">
-        <v>0.054338</v>
+        <v>4.819827999999999</v>
       </c>
       <c r="I11">
-        <v>0.01084889217034147</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J11">
-        <v>0.01084889217034147</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.63262733333333</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N11">
-        <v>52.897882</v>
+        <v>0.223026</v>
       </c>
       <c r="O11">
-        <v>0.9350131201380354</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P11">
-        <v>0.9350131201380353</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q11">
-        <v>0.3193739013462222</v>
+        <v>0.1194385510586667</v>
       </c>
       <c r="R11">
-        <v>2.874365112116</v>
+        <v>1.074946959528</v>
       </c>
       <c r="S11">
-        <v>0.01014385651823208</v>
+        <v>0.00323573926381664</v>
       </c>
       <c r="T11">
-        <v>0.01014385651823208</v>
+        <v>0.00323573926381664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H12">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01414533333333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N12">
-        <v>0.042436</v>
+        <v>0.696203</v>
       </c>
       <c r="O12">
-        <v>0.0007500908404267997</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P12">
-        <v>0.0007500908404267996</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q12">
-        <v>0.0002562097075555556</v>
+        <v>0.048938893682</v>
       </c>
       <c r="R12">
-        <v>0.002305887368</v>
+        <v>0.440450043138</v>
       </c>
       <c r="S12">
-        <v>8.137654645751157E-06</v>
+        <v>0.001325815646715392</v>
       </c>
       <c r="T12">
-        <v>8.137654645751155E-06</v>
+        <v>0.001325815646715392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.210882</v>
+      </c>
+      <c r="H13">
+        <v>0.6326459999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="J13">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.63262733333333</v>
+      </c>
+      <c r="N13">
+        <v>52.897882</v>
+      </c>
+      <c r="O13">
+        <v>0.889606600882922</v>
+      </c>
+      <c r="P13">
+        <v>0.8896066008829221</v>
+      </c>
+      <c r="Q13">
+        <v>3.718403717308</v>
+      </c>
+      <c r="R13">
+        <v>33.46563345577199</v>
+      </c>
+      <c r="S13">
+        <v>0.1007361927967913</v>
+      </c>
+      <c r="T13">
+        <v>0.1007361927967913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.01811266666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.054338</v>
-      </c>
-      <c r="I13">
-        <v>0.01084889217034147</v>
-      </c>
-      <c r="J13">
-        <v>0.01084889217034147</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7115299999999999</v>
-      </c>
-      <c r="N13">
-        <v>2.13459</v>
-      </c>
-      <c r="O13">
-        <v>0.03773061568165336</v>
-      </c>
-      <c r="P13">
-        <v>0.03773061568165335</v>
-      </c>
-      <c r="Q13">
-        <v>0.01288770571333333</v>
-      </c>
-      <c r="R13">
-        <v>0.11598935142</v>
-      </c>
-      <c r="S13">
-        <v>0.000409335381050852</v>
-      </c>
-      <c r="T13">
-        <v>0.000409335381050852</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.210882</v>
+      </c>
+      <c r="H14">
+        <v>0.6326459999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="J14">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7378426666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.213528</v>
+      </c>
+      <c r="O14">
+        <v>0.03722585944063267</v>
+      </c>
+      <c r="P14">
+        <v>0.03722585944063268</v>
+      </c>
+      <c r="Q14">
+        <v>0.155597737232</v>
+      </c>
+      <c r="R14">
+        <v>1.400379635088</v>
+      </c>
+      <c r="S14">
+        <v>0.004215336700420177</v>
+      </c>
+      <c r="T14">
+        <v>0.004215336700420177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.210882</v>
+      </c>
+      <c r="H15">
+        <v>0.6326459999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="J15">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.143822333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.431467</v>
+      </c>
+      <c r="O15">
+        <v>0.05770846730521116</v>
+      </c>
+      <c r="P15">
+        <v>0.05770846730521117</v>
+      </c>
+      <c r="Q15">
+        <v>0.241211541298</v>
+      </c>
+      <c r="R15">
+        <v>2.170903871682</v>
+      </c>
+      <c r="S15">
+        <v>0.006534721395609507</v>
+      </c>
+      <c r="T15">
+        <v>0.006534721395609506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.210882</v>
+      </c>
+      <c r="H16">
+        <v>0.6326459999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="J16">
+        <v>0.113236786571516</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.223026</v>
+      </c>
+      <c r="O16">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="P16">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="Q16">
+        <v>0.015677389644</v>
+      </c>
+      <c r="R16">
+        <v>0.141096506796</v>
+      </c>
+      <c r="S16">
+        <v>0.0004247200319796769</v>
+      </c>
+      <c r="T16">
+        <v>0.0004247200319796768</v>
       </c>
     </row>
   </sheetData>
